--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,6 +831,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -859,6 +875,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,6 +917,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,6 +1025,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,6 +1061,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,6 +1101,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,6 +1145,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1165,6 +1189,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1208,6 +1233,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1249,6 +1275,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1290,6 +1317,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1331,6 +1359,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1372,6 +1401,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1413,6 +1443,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1456,6 +1487,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1497,6 +1529,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,6 +1571,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1579,6 +1613,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1620,6 +1655,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1661,6 +1697,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1702,6 +1739,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1743,6 +1781,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1784,6 +1823,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1827,6 +1867,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1870,6 +1911,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1913,6 +1955,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1954,6 +1997,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1995,6 +2039,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2036,6 +2081,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2079,6 +2125,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2122,6 +2169,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2165,6 +2213,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2206,6 +2255,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2247,6 +2297,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2288,6 +2339,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2329,6 +2381,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2370,6 +2423,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2411,6 +2465,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2452,6 +2507,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2493,6 +2549,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2536,6 +2593,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2579,6 +2637,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2622,6 +2681,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2665,6 +2725,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2708,6 +2769,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2749,6 +2811,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2790,6 +2853,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2831,6 +2895,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2872,6 +2937,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2913,6 +2979,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,6 +3021,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2995,6 +3063,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3036,6 +3105,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3077,6 +3147,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3118,6 +3189,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3159,6 +3231,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3200,6 +3273,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3241,6 +3315,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3282,6 +3357,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3323,6 +3399,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3364,6 +3441,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3405,6 +3483,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3446,6 +3525,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3487,6 +3567,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3528,6 +3609,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3569,6 +3651,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3610,6 +3693,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3651,6 +3735,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3692,6 +3777,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3733,6 +3819,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3774,6 +3861,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3815,6 +3903,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3856,6 +3945,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3897,6 +3987,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3938,6 +4029,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3979,6 +4071,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4020,6 +4113,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4061,6 +4155,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4102,6 +4197,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4143,6 +4239,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4184,6 +4281,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4225,6 +4323,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4265,6 +4364,9 @@
       </c>
       <c r="M96" t="n">
         <v>1.067488342518016</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.014957264957265</v>
       </c>
     </row>
     <row r="97">
@@ -4301,6 +4403,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4336,6 +4439,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4363,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4371,6 +4475,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4406,6 +4511,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4433,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4441,6 +4547,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4468,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4476,6 +4583,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4511,6 +4619,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4546,6 +4655,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4573,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4581,6 +4691,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4616,6 +4727,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4643,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4651,6 +4763,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4678,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4686,6 +4799,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4713,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4721,6 +4835,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4748,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4756,6 +4871,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4791,6 +4907,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>235</v>
+        <v>238.9</v>
       </c>
       <c r="C2" t="n">
-        <v>234</v>
+        <v>238.9</v>
       </c>
       <c r="D2" t="n">
-        <v>235</v>
+        <v>238.9</v>
       </c>
       <c r="E2" t="n">
-        <v>234</v>
+        <v>238.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2789.9177</v>
+        <v>73.00149999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-110463.1584000001</v>
+        <v>-111232.1725</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>234</v>
+        <v>238.9</v>
       </c>
       <c r="C3" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D3" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E3" t="n">
-        <v>234</v>
+        <v>238.9</v>
       </c>
       <c r="F3" t="n">
-        <v>1210.0823</v>
+        <v>470.6651</v>
       </c>
       <c r="G3" t="n">
-        <v>-110463.1584000001</v>
+        <v>-110761.5074</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C4" t="n">
-        <v>235</v>
+        <v>239.7</v>
       </c>
       <c r="D4" t="n">
-        <v>235</v>
+        <v>239.7</v>
       </c>
       <c r="E4" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F4" t="n">
-        <v>210.15</v>
+        <v>1296</v>
       </c>
       <c r="G4" t="n">
-        <v>-110253.0084000001</v>
+        <v>-109465.5074</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>236.5</v>
+        <v>239.8</v>
       </c>
       <c r="C5" t="n">
-        <v>236.5</v>
+        <v>239.8</v>
       </c>
       <c r="D5" t="n">
-        <v>236.5</v>
+        <v>239.8</v>
       </c>
       <c r="E5" t="n">
-        <v>236.5</v>
+        <v>239.8</v>
       </c>
       <c r="F5" t="n">
-        <v>32.3184</v>
+        <v>13525.1089</v>
       </c>
       <c r="G5" t="n">
-        <v>-110220.6900000001</v>
+        <v>-95940.39850000004</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>237.5</v>
+        <v>238.9</v>
       </c>
       <c r="C6" t="n">
-        <v>237.3</v>
+        <v>237</v>
       </c>
       <c r="D6" t="n">
-        <v>237.5</v>
+        <v>238.9</v>
       </c>
       <c r="E6" t="n">
-        <v>237.3</v>
+        <v>237</v>
       </c>
       <c r="F6" t="n">
-        <v>5901.5733</v>
+        <v>395.1349</v>
       </c>
       <c r="G6" t="n">
-        <v>-104319.1167000001</v>
+        <v>-96335.53340000004</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>237.3</v>
+        <v>236</v>
       </c>
       <c r="C7" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" t="n">
-        <v>237.3</v>
+        <v>236</v>
       </c>
       <c r="E7" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F7" t="n">
-        <v>960</v>
+        <v>1429.7314</v>
       </c>
       <c r="G7" t="n">
-        <v>-105279.1167000001</v>
+        <v>-97765.26480000005</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>237</v>
       </c>
       <c r="F8" t="n">
-        <v>27.9267</v>
+        <v>81.4422</v>
       </c>
       <c r="G8" t="n">
-        <v>-105279.1167000001</v>
+        <v>-97683.82260000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>236.5</v>
+        <v>240</v>
       </c>
       <c r="C9" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D9" t="n">
-        <v>236.5</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F9" t="n">
-        <v>7221.978</v>
+        <v>8371.0542</v>
       </c>
       <c r="G9" t="n">
-        <v>-112501.0947000001</v>
+        <v>-89312.76840000004</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>234.7</v>
+        <v>246</v>
       </c>
       <c r="C10" t="n">
-        <v>234.9</v>
+        <v>246</v>
       </c>
       <c r="D10" t="n">
-        <v>234.9</v>
+        <v>246</v>
       </c>
       <c r="E10" t="n">
-        <v>234.7</v>
+        <v>246</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>2091.3536</v>
       </c>
       <c r="G10" t="n">
-        <v>-112510.0947000001</v>
+        <v>-87221.41480000004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C11" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D11" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E11" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F11" t="n">
-        <v>3186.3704</v>
+        <v>1398.8</v>
       </c>
       <c r="G11" t="n">
-        <v>-109323.7243000001</v>
+        <v>-88620.21480000005</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,35 +798,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>235.6</v>
+        <v>244</v>
       </c>
       <c r="C12" t="n">
-        <v>235.6</v>
+        <v>242</v>
       </c>
       <c r="D12" t="n">
-        <v>235.6</v>
+        <v>244</v>
       </c>
       <c r="E12" t="n">
-        <v>235.6</v>
+        <v>242</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>2543.357</v>
       </c>
       <c r="G12" t="n">
-        <v>-109317.7243000001</v>
+        <v>-91163.57180000005</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>235</v>
-      </c>
-      <c r="K12" t="n">
-        <v>235</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -838,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>235.7</v>
+        <v>240.1</v>
       </c>
       <c r="C13" t="n">
-        <v>235.8</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
-        <v>235.8</v>
+        <v>240.1</v>
       </c>
       <c r="E13" t="n">
-        <v>235.7</v>
+        <v>240</v>
       </c>
       <c r="F13" t="n">
-        <v>1596.689</v>
+        <v>3124.4314</v>
       </c>
       <c r="G13" t="n">
-        <v>-107721.0353000001</v>
+        <v>-94288.00320000005</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>235</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -882,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="C14" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="D14" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="E14" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="F14" t="n">
-        <v>539.4109999999999</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>-107721.0353000001</v>
+        <v>-94283.00320000005</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>235</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>236.2</v>
+        <v>241.2</v>
       </c>
       <c r="C15" t="n">
-        <v>236.2</v>
+        <v>241.2</v>
       </c>
       <c r="D15" t="n">
-        <v>236.2</v>
+        <v>241.2</v>
       </c>
       <c r="E15" t="n">
-        <v>236.2</v>
+        <v>241.2</v>
       </c>
       <c r="F15" t="n">
-        <v>633.3961</v>
+        <v>37.7177</v>
       </c>
       <c r="G15" t="n">
-        <v>-107087.6392000001</v>
+        <v>-94245.28550000006</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -960,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="C16" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="D16" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="E16" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="F16" t="n">
-        <v>175.3422</v>
+        <v>1038.4016</v>
       </c>
       <c r="G16" t="n">
-        <v>-106912.2970000001</v>
+        <v>-95283.68710000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="C17" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="D17" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="E17" t="n">
-        <v>236.8</v>
+        <v>240</v>
       </c>
       <c r="F17" t="n">
-        <v>175.3</v>
+        <v>243.6</v>
       </c>
       <c r="G17" t="n">
-        <v>-106912.2970000001</v>
+        <v>-95283.68710000005</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1032,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>235.9</v>
+        <v>241</v>
       </c>
       <c r="C18" t="n">
-        <v>235.9</v>
+        <v>240</v>
       </c>
       <c r="D18" t="n">
-        <v>235.9</v>
+        <v>241</v>
       </c>
       <c r="E18" t="n">
-        <v>235.9</v>
+        <v>240</v>
       </c>
       <c r="F18" t="n">
-        <v>710</v>
+        <v>7816.2975</v>
       </c>
       <c r="G18" t="n">
-        <v>-107622.2970000001</v>
+        <v>-95283.68710000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,35 +1050,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="C19" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="D19" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="E19" t="n">
-        <v>235.8</v>
+        <v>240.9</v>
       </c>
       <c r="F19" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>-107842.2970000001</v>
+        <v>-95233.68710000005</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>235.9</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1108,40 +1086,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C20" t="n">
-        <v>236</v>
+        <v>238.1</v>
       </c>
       <c r="D20" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E20" t="n">
-        <v>236</v>
+        <v>238.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1372.4106</v>
+        <v>7816.2976</v>
       </c>
       <c r="G20" t="n">
-        <v>-106469.8864000001</v>
+        <v>-103049.9847000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1152,40 +1122,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>232.6</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>232.6</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>5391.4205</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>-111861.3069000001</v>
+        <v>-103052.9847000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>236</v>
-      </c>
-      <c r="K21" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1196,40 +1158,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>236.5</v>
+        <v>237.9</v>
       </c>
       <c r="C22" t="n">
-        <v>236.5</v>
+        <v>237.3</v>
       </c>
       <c r="D22" t="n">
-        <v>236.5</v>
+        <v>237.9</v>
       </c>
       <c r="E22" t="n">
-        <v>236.5</v>
+        <v>237.3</v>
       </c>
       <c r="F22" t="n">
-        <v>48.2115</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>-111813.0954</v>
+        <v>-103061.9847000001</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1240,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>235</v>
+        <v>238.6</v>
       </c>
       <c r="C23" t="n">
-        <v>235</v>
+        <v>238.6</v>
       </c>
       <c r="D23" t="n">
-        <v>235</v>
+        <v>238.6</v>
       </c>
       <c r="E23" t="n">
-        <v>235</v>
+        <v>238.6</v>
       </c>
       <c r="F23" t="n">
-        <v>60.3698</v>
+        <v>1976.957</v>
       </c>
       <c r="G23" t="n">
-        <v>-111873.4652</v>
+        <v>-101085.0277000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1264,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>235</v>
+        <v>238.6</v>
       </c>
       <c r="C24" t="n">
-        <v>233.7</v>
+        <v>238.6</v>
       </c>
       <c r="D24" t="n">
-        <v>235</v>
+        <v>238.6</v>
       </c>
       <c r="E24" t="n">
-        <v>233.7</v>
+        <v>238.6</v>
       </c>
       <c r="F24" t="n">
-        <v>350.9058</v>
+        <v>4918.118</v>
       </c>
       <c r="G24" t="n">
-        <v>-112224.371</v>
+        <v>-101085.0277000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1306,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1324,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>233.8</v>
+        <v>237.2</v>
       </c>
       <c r="C25" t="n">
-        <v>233.7</v>
+        <v>236</v>
       </c>
       <c r="D25" t="n">
-        <v>233.8</v>
+        <v>237.2</v>
       </c>
       <c r="E25" t="n">
-        <v>233.7</v>
+        <v>236</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2913</v>
+        <v>6275.7837</v>
       </c>
       <c r="G25" t="n">
-        <v>-112224.371</v>
+        <v>-107360.8114000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1348,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1366,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>233.1</v>
+        <v>236.2</v>
       </c>
       <c r="C26" t="n">
-        <v>232.7</v>
+        <v>236.2</v>
       </c>
       <c r="D26" t="n">
-        <v>233.1</v>
+        <v>236.2</v>
       </c>
       <c r="E26" t="n">
-        <v>232.7</v>
+        <v>236.2</v>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>68.20999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-112239.371</v>
+        <v>-107292.6014000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1390,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1408,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>232.6</v>
+        <v>236.4</v>
       </c>
       <c r="C27" t="n">
-        <v>232.6</v>
+        <v>236.3</v>
       </c>
       <c r="D27" t="n">
-        <v>232.6</v>
+        <v>236.4</v>
       </c>
       <c r="E27" t="n">
-        <v>232.6</v>
+        <v>236.3</v>
       </c>
       <c r="F27" t="n">
-        <v>181.5361</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>-112420.9071</v>
+        <v>-107286.6014000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1432,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1450,40 +1374,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="C28" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="D28" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="E28" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="F28" t="n">
-        <v>577.0571</v>
+        <v>145.19</v>
       </c>
       <c r="G28" t="n">
-        <v>-112420.9071</v>
+        <v>-107431.7914000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1494,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="C29" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="D29" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="E29" t="n">
-        <v>232.6</v>
+        <v>236.2</v>
       </c>
       <c r="F29" t="n">
-        <v>8599.797</v>
+        <v>561.216</v>
       </c>
       <c r="G29" t="n">
-        <v>-112420.9071</v>
+        <v>-107431.7914000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1518,14 +1434,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1536,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>232.5</v>
+        <v>236.1</v>
       </c>
       <c r="C30" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D30" t="n">
-        <v>232.5</v>
+        <v>236.1</v>
       </c>
       <c r="E30" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F30" t="n">
-        <v>275</v>
+        <v>241.4493</v>
       </c>
       <c r="G30" t="n">
-        <v>-112695.9071</v>
+        <v>-107673.2407000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1560,14 +1470,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1578,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>232.6</v>
+        <v>235</v>
       </c>
       <c r="C31" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D31" t="n">
-        <v>232.6</v>
+        <v>235</v>
       </c>
       <c r="E31" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F31" t="n">
-        <v>2825.8748</v>
+        <v>2789.9177</v>
       </c>
       <c r="G31" t="n">
-        <v>-112695.9071</v>
+        <v>-110463.1584000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1602,14 +1506,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1620,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C32" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D32" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E32" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F32" t="n">
-        <v>3500.0615</v>
+        <v>1210.0823</v>
       </c>
       <c r="G32" t="n">
-        <v>-112695.9071</v>
+        <v>-110463.1584000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1644,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C33" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D33" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E33" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F33" t="n">
-        <v>8241.1453</v>
+        <v>210.15</v>
       </c>
       <c r="G33" t="n">
-        <v>-120937.0524</v>
+        <v>-110253.0084000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1686,14 +1578,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1704,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>230</v>
+        <v>236.5</v>
       </c>
       <c r="C34" t="n">
-        <v>230</v>
+        <v>236.5</v>
       </c>
       <c r="D34" t="n">
-        <v>230</v>
+        <v>236.5</v>
       </c>
       <c r="E34" t="n">
-        <v>230</v>
+        <v>236.5</v>
       </c>
       <c r="F34" t="n">
-        <v>2336.0933</v>
+        <v>32.3184</v>
       </c>
       <c r="G34" t="n">
-        <v>-120937.0524</v>
+        <v>-110220.6900000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1728,14 +1614,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1746,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>230</v>
+        <v>237.5</v>
       </c>
       <c r="C35" t="n">
-        <v>230</v>
+        <v>237.3</v>
       </c>
       <c r="D35" t="n">
-        <v>230</v>
+        <v>237.5</v>
       </c>
       <c r="E35" t="n">
-        <v>229</v>
+        <v>237.3</v>
       </c>
       <c r="F35" t="n">
-        <v>3277.8422</v>
+        <v>5901.5733</v>
       </c>
       <c r="G35" t="n">
-        <v>-120937.0524</v>
+        <v>-104319.1167000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1770,14 +1650,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1788,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>230</v>
+        <v>237.3</v>
       </c>
       <c r="C36" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D36" t="n">
-        <v>230</v>
+        <v>237.3</v>
       </c>
       <c r="E36" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>960</v>
       </c>
       <c r="G36" t="n">
-        <v>-120937.0524</v>
+        <v>-105279.1167000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1812,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1830,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C37" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D37" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="E37" t="n">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F37" t="n">
-        <v>154.4701</v>
+        <v>27.9267</v>
       </c>
       <c r="G37" t="n">
-        <v>-120937.0524</v>
+        <v>-105279.1167000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>230</v>
-      </c>
-      <c r="K37" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1874,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>230</v>
+        <v>236.5</v>
       </c>
       <c r="C38" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D38" t="n">
-        <v>230</v>
+        <v>236.5</v>
       </c>
       <c r="E38" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F38" t="n">
-        <v>2044.2432</v>
+        <v>7221.978</v>
       </c>
       <c r="G38" t="n">
-        <v>-120937.0524</v>
+        <v>-112501.0947000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>230</v>
-      </c>
-      <c r="K38" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1918,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>230</v>
+        <v>234.7</v>
       </c>
       <c r="C39" t="n">
-        <v>231</v>
+        <v>234.9</v>
       </c>
       <c r="D39" t="n">
-        <v>231</v>
+        <v>234.9</v>
       </c>
       <c r="E39" t="n">
-        <v>230</v>
+        <v>234.7</v>
       </c>
       <c r="F39" t="n">
-        <v>492.6504</v>
+        <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>-120444.402</v>
+        <v>-112510.0947000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>230</v>
-      </c>
-      <c r="K39" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1962,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C40" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D40" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E40" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F40" t="n">
-        <v>56.7263</v>
+        <v>3186.3704</v>
       </c>
       <c r="G40" t="n">
-        <v>-120444.402</v>
+        <v>-109323.7243000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1986,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2004,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>231</v>
+        <v>235.6</v>
       </c>
       <c r="C41" t="n">
-        <v>231</v>
+        <v>235.6</v>
       </c>
       <c r="D41" t="n">
-        <v>231</v>
+        <v>235.6</v>
       </c>
       <c r="E41" t="n">
-        <v>231</v>
+        <v>235.6</v>
       </c>
       <c r="F41" t="n">
-        <v>1861.9402</v>
+        <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>-120444.402</v>
+        <v>-109317.7243000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2028,14 +1866,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2046,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>231.8</v>
+        <v>235.7</v>
       </c>
       <c r="C42" t="n">
-        <v>231.8</v>
+        <v>235.8</v>
       </c>
       <c r="D42" t="n">
-        <v>231.8</v>
+        <v>235.8</v>
       </c>
       <c r="E42" t="n">
-        <v>231.8</v>
+        <v>235.7</v>
       </c>
       <c r="F42" t="n">
-        <v>6620</v>
+        <v>1596.689</v>
       </c>
       <c r="G42" t="n">
-        <v>-113824.402</v>
+        <v>-107721.0353000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2070,14 +1902,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2088,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>231.8</v>
+        <v>235.8</v>
       </c>
       <c r="C43" t="n">
-        <v>231.2</v>
+        <v>235.8</v>
       </c>
       <c r="D43" t="n">
-        <v>231.8</v>
+        <v>235.8</v>
       </c>
       <c r="E43" t="n">
-        <v>231.2</v>
+        <v>235.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1767.1397</v>
+        <v>539.4109999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-115591.5417</v>
+        <v>-107721.0353000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2132,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>232</v>
+        <v>236.2</v>
       </c>
       <c r="C44" t="n">
-        <v>242</v>
+        <v>236.2</v>
       </c>
       <c r="D44" t="n">
-        <v>242</v>
+        <v>236.2</v>
       </c>
       <c r="E44" t="n">
-        <v>232</v>
+        <v>236.2</v>
       </c>
       <c r="F44" t="n">
-        <v>9575.843612809917</v>
+        <v>633.3961</v>
       </c>
       <c r="G44" t="n">
-        <v>-106015.6980871901</v>
+        <v>-107087.6392000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2176,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>236.2</v>
+        <v>236.8</v>
       </c>
       <c r="C45" t="n">
-        <v>235.2</v>
+        <v>236.8</v>
       </c>
       <c r="D45" t="n">
-        <v>236.2</v>
+        <v>236.8</v>
       </c>
       <c r="E45" t="n">
-        <v>235.2</v>
+        <v>236.8</v>
       </c>
       <c r="F45" t="n">
-        <v>232.1755</v>
+        <v>175.3422</v>
       </c>
       <c r="G45" t="n">
-        <v>-106247.8735871901</v>
+        <v>-106912.2970000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>242</v>
-      </c>
-      <c r="K45" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2220,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>235.2</v>
+        <v>236.8</v>
       </c>
       <c r="C46" t="n">
-        <v>235.2</v>
+        <v>236.8</v>
       </c>
       <c r="D46" t="n">
-        <v>235.2</v>
+        <v>236.8</v>
       </c>
       <c r="E46" t="n">
-        <v>235.2</v>
+        <v>236.8</v>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>175.3</v>
       </c>
       <c r="G46" t="n">
-        <v>-106247.8735871901</v>
+        <v>-106912.2970000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2244,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2262,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="C47" t="n">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="D47" t="n">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="E47" t="n">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="F47" t="n">
-        <v>235.5</v>
+        <v>710</v>
       </c>
       <c r="G47" t="n">
-        <v>-106483.3735871901</v>
+        <v>-107622.2970000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2286,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2304,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>235</v>
+        <v>235.8</v>
       </c>
       <c r="C48" t="n">
-        <v>235</v>
+        <v>235.8</v>
       </c>
       <c r="D48" t="n">
-        <v>235</v>
+        <v>235.8</v>
       </c>
       <c r="E48" t="n">
-        <v>235</v>
+        <v>235.8</v>
       </c>
       <c r="F48" t="n">
-        <v>2.2</v>
+        <v>220</v>
       </c>
       <c r="G48" t="n">
-        <v>-106481.1735871901</v>
+        <v>-107842.2970000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2328,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>232.3</v>
+        <v>237</v>
       </c>
       <c r="C49" t="n">
-        <v>232.3</v>
+        <v>236</v>
       </c>
       <c r="D49" t="n">
-        <v>232.3</v>
+        <v>237</v>
       </c>
       <c r="E49" t="n">
-        <v>232.3</v>
+        <v>236</v>
       </c>
       <c r="F49" t="n">
-        <v>327</v>
+        <v>1372.4106</v>
       </c>
       <c r="G49" t="n">
-        <v>-106808.1735871901</v>
+        <v>-106469.8864000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2370,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2388,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>232.3</v>
+        <v>236</v>
       </c>
       <c r="C50" t="n">
-        <v>232.3</v>
+        <v>232.6</v>
       </c>
       <c r="D50" t="n">
-        <v>232.3</v>
+        <v>236</v>
       </c>
       <c r="E50" t="n">
-        <v>232.3</v>
+        <v>232.6</v>
       </c>
       <c r="F50" t="n">
-        <v>253.684</v>
+        <v>5391.4205</v>
       </c>
       <c r="G50" t="n">
-        <v>-106808.1735871901</v>
+        <v>-111861.3069000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2412,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2430,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>232.6</v>
+        <v>236.5</v>
       </c>
       <c r="C51" t="n">
-        <v>232.6</v>
+        <v>236.5</v>
       </c>
       <c r="D51" t="n">
-        <v>232.6</v>
+        <v>236.5</v>
       </c>
       <c r="E51" t="n">
-        <v>232.6</v>
+        <v>236.5</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>48.2115</v>
       </c>
       <c r="G51" t="n">
-        <v>-106805.1735871901</v>
+        <v>-111813.0954</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2454,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2472,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>232.8</v>
+        <v>235</v>
       </c>
       <c r="C52" t="n">
-        <v>232.8</v>
+        <v>235</v>
       </c>
       <c r="D52" t="n">
-        <v>232.8</v>
+        <v>235</v>
       </c>
       <c r="E52" t="n">
-        <v>232.8</v>
+        <v>235</v>
       </c>
       <c r="F52" t="n">
-        <v>3</v>
+        <v>60.3698</v>
       </c>
       <c r="G52" t="n">
-        <v>-106802.1735871901</v>
+        <v>-111873.4652</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2496,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2514,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C53" t="n">
-        <v>234.9</v>
+        <v>233.7</v>
       </c>
       <c r="D53" t="n">
-        <v>234.9</v>
+        <v>235</v>
       </c>
       <c r="E53" t="n">
-        <v>233</v>
+        <v>233.7</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>350.9058</v>
       </c>
       <c r="G53" t="n">
-        <v>-106702.1735871901</v>
+        <v>-112224.371</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2538,14 +2298,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2556,40 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>233.6</v>
+        <v>233.8</v>
       </c>
       <c r="C54" t="n">
-        <v>233.6</v>
+        <v>233.7</v>
       </c>
       <c r="D54" t="n">
-        <v>233.6</v>
+        <v>233.8</v>
       </c>
       <c r="E54" t="n">
-        <v>233.6</v>
+        <v>233.7</v>
       </c>
       <c r="F54" t="n">
-        <v>155.6</v>
+        <v>234.2913</v>
       </c>
       <c r="G54" t="n">
-        <v>-106857.7735871901</v>
+        <v>-112224.371</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="K54" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2600,40 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>235</v>
+        <v>233.1</v>
       </c>
       <c r="C55" t="n">
-        <v>235</v>
+        <v>232.7</v>
       </c>
       <c r="D55" t="n">
-        <v>235</v>
+        <v>233.1</v>
       </c>
       <c r="E55" t="n">
-        <v>235</v>
+        <v>232.7</v>
       </c>
       <c r="F55" t="n">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="G55" t="n">
-        <v>-106855.5735871901</v>
+        <v>-112239.371</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2647,37 +2385,29 @@
         <v>232.6</v>
       </c>
       <c r="C56" t="n">
-        <v>231.3</v>
+        <v>232.6</v>
       </c>
       <c r="D56" t="n">
         <v>232.6</v>
       </c>
       <c r="E56" t="n">
-        <v>231.3</v>
+        <v>232.6</v>
       </c>
       <c r="F56" t="n">
-        <v>400.3422</v>
+        <v>181.5361</v>
       </c>
       <c r="G56" t="n">
-        <v>-107255.9157871901</v>
+        <v>-112420.9071</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>235</v>
-      </c>
-      <c r="K56" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2688,40 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>235</v>
+        <v>232.6</v>
       </c>
       <c r="C57" t="n">
-        <v>236.7</v>
+        <v>232.6</v>
       </c>
       <c r="D57" t="n">
-        <v>236.7</v>
+        <v>232.6</v>
       </c>
       <c r="E57" t="n">
-        <v>235</v>
+        <v>232.6</v>
       </c>
       <c r="F57" t="n">
-        <v>51.8</v>
+        <v>577.0571</v>
       </c>
       <c r="G57" t="n">
-        <v>-107204.1157871901</v>
+        <v>-112420.9071</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2732,40 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>239.4</v>
+        <v>232.6</v>
       </c>
       <c r="C58" t="n">
-        <v>239.4</v>
+        <v>232.6</v>
       </c>
       <c r="D58" t="n">
-        <v>239.4</v>
+        <v>232.6</v>
       </c>
       <c r="E58" t="n">
-        <v>239.4</v>
+        <v>232.6</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>8599.797</v>
       </c>
       <c r="G58" t="n">
-        <v>-107201.1157871901</v>
+        <v>-112420.9071</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2776,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>236.8</v>
+        <v>232.5</v>
       </c>
       <c r="C59" t="n">
-        <v>236.8</v>
+        <v>232</v>
       </c>
       <c r="D59" t="n">
-        <v>236.8</v>
+        <v>232.5</v>
       </c>
       <c r="E59" t="n">
-        <v>236.8</v>
+        <v>232</v>
       </c>
       <c r="F59" t="n">
-        <v>60.7755</v>
+        <v>275</v>
       </c>
       <c r="G59" t="n">
-        <v>-107261.8912871901</v>
+        <v>-112695.9071</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2800,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2818,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>242</v>
+        <v>232.6</v>
       </c>
       <c r="C60" t="n">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D60" t="n">
-        <v>242</v>
+        <v>232.6</v>
       </c>
       <c r="E60" t="n">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2825.8748</v>
       </c>
       <c r="G60" t="n">
-        <v>-107258.8912871901</v>
+        <v>-112695.9071</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2842,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2860,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>236.8</v>
+        <v>232</v>
       </c>
       <c r="C61" t="n">
-        <v>236.8</v>
+        <v>232</v>
       </c>
       <c r="D61" t="n">
-        <v>236.8</v>
+        <v>232</v>
       </c>
       <c r="E61" t="n">
-        <v>236.8</v>
+        <v>232</v>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>3500.0615</v>
       </c>
       <c r="G61" t="n">
-        <v>-107278.8912871901</v>
+        <v>-112695.9071</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2884,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2902,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C62" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D62" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E62" t="n">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="F62" t="n">
-        <v>2.2</v>
+        <v>8241.1453</v>
       </c>
       <c r="G62" t="n">
-        <v>-107276.6912871901</v>
+        <v>-120937.0524</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2926,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2944,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="C63" t="n">
-        <v>236.7</v>
+        <v>230</v>
       </c>
       <c r="D63" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="E63" t="n">
-        <v>236.7</v>
+        <v>230</v>
       </c>
       <c r="F63" t="n">
-        <v>49.2245</v>
+        <v>2336.0933</v>
       </c>
       <c r="G63" t="n">
-        <v>-107325.9157871901</v>
+        <v>-120937.0524</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2968,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2986,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>236.7</v>
+        <v>230</v>
       </c>
       <c r="C64" t="n">
-        <v>236.7</v>
+        <v>230</v>
       </c>
       <c r="D64" t="n">
-        <v>236.7</v>
+        <v>230</v>
       </c>
       <c r="E64" t="n">
-        <v>236.7</v>
+        <v>229</v>
       </c>
       <c r="F64" t="n">
-        <v>18</v>
+        <v>3277.8422</v>
       </c>
       <c r="G64" t="n">
-        <v>-107325.9157871901</v>
+        <v>-120937.0524</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3010,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3028,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="C65" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="D65" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="E65" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7755</v>
+        <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>-107325.1402871901</v>
+        <v>-120937.0524</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3052,14 +2730,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3070,38 +2742,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="C66" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="D66" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="E66" t="n">
-        <v>236.8</v>
+        <v>230</v>
       </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>154.4701</v>
       </c>
       <c r="G66" t="n">
-        <v>-107325.1402871901</v>
+        <v>-120937.0524</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>230</v>
+      </c>
       <c r="K66" t="n">
-        <v>235.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3112,36 +2782,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C67" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D67" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E67" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F67" t="n">
-        <v>2.2</v>
+        <v>2044.2432</v>
       </c>
       <c r="G67" t="n">
-        <v>-107322.9402871901</v>
+        <v>-120937.0524</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>230</v>
+      </c>
       <c r="K67" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -3154,36 +2826,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C68" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D68" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E68" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F68" t="n">
-        <v>17.8</v>
+        <v>492.6504</v>
       </c>
       <c r="G68" t="n">
-        <v>-107322.9402871901</v>
+        <v>-120444.402</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>230</v>
+      </c>
       <c r="K68" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -3196,32 +2870,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>236.8</v>
+        <v>231</v>
       </c>
       <c r="C69" t="n">
-        <v>236.1</v>
+        <v>231</v>
       </c>
       <c r="D69" t="n">
-        <v>236.8</v>
+        <v>231</v>
       </c>
       <c r="E69" t="n">
-        <v>236.1</v>
+        <v>231</v>
       </c>
       <c r="F69" t="n">
-        <v>310</v>
+        <v>56.7263</v>
       </c>
       <c r="G69" t="n">
-        <v>-107632.9402871901</v>
+        <v>-120444.402</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>231</v>
+      </c>
       <c r="K69" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3238,32 +2914,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C70" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D70" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E70" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F70" t="n">
-        <v>2.2</v>
+        <v>1861.9402</v>
       </c>
       <c r="G70" t="n">
-        <v>-107630.7402871901</v>
+        <v>-120444.402</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>231</v>
+      </c>
       <c r="K70" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3280,32 +2958,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>235.2</v>
+        <v>231.8</v>
       </c>
       <c r="C71" t="n">
-        <v>235.2</v>
+        <v>231.8</v>
       </c>
       <c r="D71" t="n">
-        <v>235.2</v>
+        <v>231.8</v>
       </c>
       <c r="E71" t="n">
-        <v>235.2</v>
+        <v>231.8</v>
       </c>
       <c r="F71" t="n">
-        <v>63.7755</v>
+        <v>6620</v>
       </c>
       <c r="G71" t="n">
-        <v>-107694.5157871901</v>
+        <v>-113824.402</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>231</v>
+      </c>
       <c r="K71" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3322,32 +3002,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>236</v>
+        <v>231.8</v>
       </c>
       <c r="C72" t="n">
-        <v>236</v>
+        <v>231.2</v>
       </c>
       <c r="D72" t="n">
-        <v>236</v>
+        <v>231.8</v>
       </c>
       <c r="E72" t="n">
-        <v>236</v>
+        <v>231.2</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>1767.1397</v>
       </c>
       <c r="G72" t="n">
-        <v>-107664.5157871901</v>
+        <v>-115591.5417</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>231.8</v>
+      </c>
       <c r="K72" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3364,32 +3046,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>236.7</v>
+        <v>232</v>
       </c>
       <c r="C73" t="n">
-        <v>237.9</v>
+        <v>242</v>
       </c>
       <c r="D73" t="n">
-        <v>237.9</v>
+        <v>242</v>
       </c>
       <c r="E73" t="n">
-        <v>236.7</v>
+        <v>232</v>
       </c>
       <c r="F73" t="n">
-        <v>18236.8508</v>
+        <v>9575.843612809917</v>
       </c>
       <c r="G73" t="n">
-        <v>-89427.66498719015</v>
+        <v>-106015.6980871901</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>231.2</v>
+      </c>
       <c r="K73" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3406,22 +3090,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>237.9</v>
+        <v>236.2</v>
       </c>
       <c r="C74" t="n">
-        <v>237.9</v>
+        <v>235.2</v>
       </c>
       <c r="D74" t="n">
-        <v>237.9</v>
+        <v>236.2</v>
       </c>
       <c r="E74" t="n">
-        <v>237.9</v>
+        <v>235.2</v>
       </c>
       <c r="F74" t="n">
-        <v>633.3961</v>
+        <v>232.1755</v>
       </c>
       <c r="G74" t="n">
-        <v>-89427.66498719015</v>
+        <v>-106247.8735871901</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3431,7 +3115,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3448,22 +3132,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>238</v>
+        <v>235.2</v>
       </c>
       <c r="C75" t="n">
-        <v>238</v>
+        <v>235.2</v>
       </c>
       <c r="D75" t="n">
-        <v>238</v>
+        <v>235.2</v>
       </c>
       <c r="E75" t="n">
-        <v>238</v>
+        <v>235.2</v>
       </c>
       <c r="F75" t="n">
-        <v>15.6</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>-89412.06498719014</v>
+        <v>-106247.8735871901</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3473,7 +3157,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3490,22 +3174,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C76" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D76" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E76" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F76" t="n">
-        <v>300</v>
+        <v>235.5</v>
       </c>
       <c r="G76" t="n">
-        <v>-89412.06498719014</v>
+        <v>-106483.3735871901</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3515,7 +3199,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3532,22 +3216,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>238.1</v>
+        <v>235</v>
       </c>
       <c r="C77" t="n">
-        <v>238.1</v>
+        <v>235</v>
       </c>
       <c r="D77" t="n">
-        <v>238.1</v>
+        <v>235</v>
       </c>
       <c r="E77" t="n">
-        <v>238.1</v>
+        <v>235</v>
       </c>
       <c r="F77" t="n">
-        <v>2196.8902</v>
+        <v>2.2</v>
       </c>
       <c r="G77" t="n">
-        <v>-87215.17478719015</v>
+        <v>-106481.1735871901</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3557,7 +3241,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3574,22 +3258,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>238</v>
+        <v>232.3</v>
       </c>
       <c r="C78" t="n">
-        <v>238</v>
+        <v>232.3</v>
       </c>
       <c r="D78" t="n">
-        <v>238</v>
+        <v>232.3</v>
       </c>
       <c r="E78" t="n">
-        <v>238</v>
+        <v>232.3</v>
       </c>
       <c r="F78" t="n">
-        <v>1387.1437</v>
+        <v>327</v>
       </c>
       <c r="G78" t="n">
-        <v>-88602.31848719015</v>
+        <v>-106808.1735871901</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3599,7 +3283,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3616,22 +3300,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>237.3</v>
+        <v>232.3</v>
       </c>
       <c r="C79" t="n">
-        <v>238</v>
+        <v>232.3</v>
       </c>
       <c r="D79" t="n">
-        <v>238</v>
+        <v>232.3</v>
       </c>
       <c r="E79" t="n">
-        <v>237.3</v>
+        <v>232.3</v>
       </c>
       <c r="F79" t="n">
-        <v>638.3920000000001</v>
+        <v>253.684</v>
       </c>
       <c r="G79" t="n">
-        <v>-88602.31848719015</v>
+        <v>-106808.1735871901</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3641,7 +3325,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3658,32 +3342,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>238.2</v>
+        <v>232.6</v>
       </c>
       <c r="C80" t="n">
-        <v>238.2</v>
+        <v>232.6</v>
       </c>
       <c r="D80" t="n">
-        <v>238.2</v>
+        <v>232.6</v>
       </c>
       <c r="E80" t="n">
-        <v>238.2</v>
+        <v>232.6</v>
       </c>
       <c r="F80" t="n">
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>-88599.31848719015</v>
+        <v>-106805.1735871901</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>232.3</v>
+      </c>
       <c r="K80" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3700,32 +3386,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>238.1</v>
+        <v>232.8</v>
       </c>
       <c r="C81" t="n">
-        <v>238.1</v>
+        <v>232.8</v>
       </c>
       <c r="D81" t="n">
-        <v>238.1</v>
+        <v>232.8</v>
       </c>
       <c r="E81" t="n">
-        <v>238.1</v>
+        <v>232.8</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>-88629.31848719015</v>
+        <v>-106802.1735871901</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>232.6</v>
+      </c>
       <c r="K81" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3742,32 +3430,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>238.1</v>
+        <v>233</v>
       </c>
       <c r="C82" t="n">
-        <v>238.1</v>
+        <v>234.9</v>
       </c>
       <c r="D82" t="n">
-        <v>238.1</v>
+        <v>234.9</v>
       </c>
       <c r="E82" t="n">
-        <v>238.1</v>
+        <v>233</v>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-88629.31848719015</v>
+        <v>-106702.1735871901</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>232.8</v>
+      </c>
       <c r="K82" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3784,32 +3474,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>237.1</v>
+        <v>233.6</v>
       </c>
       <c r="C83" t="n">
-        <v>237.1</v>
+        <v>233.6</v>
       </c>
       <c r="D83" t="n">
-        <v>237.1</v>
+        <v>233.6</v>
       </c>
       <c r="E83" t="n">
-        <v>237.1</v>
+        <v>233.6</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>155.6</v>
       </c>
       <c r="G83" t="n">
-        <v>-88679.31848719015</v>
+        <v>-106857.7735871901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>234.9</v>
+      </c>
       <c r="K83" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3826,32 +3518,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>237.2</v>
+        <v>235</v>
       </c>
       <c r="C84" t="n">
-        <v>237.2</v>
+        <v>235</v>
       </c>
       <c r="D84" t="n">
-        <v>237.2</v>
+        <v>235</v>
       </c>
       <c r="E84" t="n">
-        <v>237.2</v>
+        <v>235</v>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>2.2</v>
       </c>
       <c r="G84" t="n">
-        <v>-88629.31848719015</v>
+        <v>-106855.5735871901</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>233.6</v>
+      </c>
       <c r="K84" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3868,32 +3562,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>237.9</v>
+        <v>232.6</v>
       </c>
       <c r="C85" t="n">
-        <v>237.9</v>
+        <v>231.3</v>
       </c>
       <c r="D85" t="n">
-        <v>237.9</v>
+        <v>232.6</v>
       </c>
       <c r="E85" t="n">
-        <v>237.9</v>
+        <v>231.3</v>
       </c>
       <c r="F85" t="n">
-        <v>641.3920000000001</v>
+        <v>400.3422</v>
       </c>
       <c r="G85" t="n">
-        <v>-87987.92648719014</v>
+        <v>-107255.9157871901</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>235</v>
+      </c>
       <c r="K85" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3910,32 +3606,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>237.9</v>
+        <v>235</v>
       </c>
       <c r="C86" t="n">
-        <v>237.9</v>
+        <v>236.7</v>
       </c>
       <c r="D86" t="n">
-        <v>237.9</v>
+        <v>236.7</v>
       </c>
       <c r="E86" t="n">
-        <v>237.9</v>
+        <v>235</v>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>51.8</v>
       </c>
       <c r="G86" t="n">
-        <v>-87987.92648719014</v>
+        <v>-107204.1157871901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>231.3</v>
+      </c>
       <c r="K86" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3952,22 +3650,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>238</v>
+        <v>239.4</v>
       </c>
       <c r="C87" t="n">
-        <v>238</v>
+        <v>239.4</v>
       </c>
       <c r="D87" t="n">
-        <v>238</v>
+        <v>239.4</v>
       </c>
       <c r="E87" t="n">
-        <v>238</v>
+        <v>239.4</v>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>-87937.92648719014</v>
+        <v>-107201.1157871901</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3977,7 +3675,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3994,22 +3692,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>238.3</v>
+        <v>236.8</v>
       </c>
       <c r="C88" t="n">
-        <v>238.3</v>
+        <v>236.8</v>
       </c>
       <c r="D88" t="n">
-        <v>238.3</v>
+        <v>236.8</v>
       </c>
       <c r="E88" t="n">
-        <v>238.3</v>
+        <v>236.8</v>
       </c>
       <c r="F88" t="n">
-        <v>469.9109</v>
+        <v>60.7755</v>
       </c>
       <c r="G88" t="n">
-        <v>-87468.01558719014</v>
+        <v>-107261.8912871901</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4019,7 +3717,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4036,22 +3734,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>238.4</v>
+        <v>242</v>
       </c>
       <c r="C89" t="n">
-        <v>238.4</v>
+        <v>242</v>
       </c>
       <c r="D89" t="n">
-        <v>238.4</v>
+        <v>242</v>
       </c>
       <c r="E89" t="n">
-        <v>238.4</v>
+        <v>242</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>-87465.01558719014</v>
+        <v>-107258.8912871901</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4061,7 +3759,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4078,22 +3776,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>238.5</v>
+        <v>236.8</v>
       </c>
       <c r="C90" t="n">
-        <v>238.5</v>
+        <v>236.8</v>
       </c>
       <c r="D90" t="n">
-        <v>238.5</v>
+        <v>236.8</v>
       </c>
       <c r="E90" t="n">
-        <v>238.5</v>
+        <v>236.8</v>
       </c>
       <c r="F90" t="n">
-        <v>2557.329</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>-84907.68658719014</v>
+        <v>-107278.8912871901</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4103,7 +3801,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4120,22 +3818,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>238.4</v>
+        <v>238</v>
       </c>
       <c r="C91" t="n">
-        <v>238.4</v>
+        <v>238</v>
       </c>
       <c r="D91" t="n">
-        <v>238.4</v>
+        <v>238</v>
       </c>
       <c r="E91" t="n">
-        <v>238.4</v>
+        <v>238</v>
       </c>
       <c r="F91" t="n">
-        <v>2557.329</v>
+        <v>2.2</v>
       </c>
       <c r="G91" t="n">
-        <v>-87465.01558719014</v>
+        <v>-107276.6912871901</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4145,7 +3843,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4162,22 +3860,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>238.6</v>
+        <v>236.8</v>
       </c>
       <c r="C92" t="n">
-        <v>238.6</v>
+        <v>236.7</v>
       </c>
       <c r="D92" t="n">
-        <v>238.6</v>
+        <v>236.8</v>
       </c>
       <c r="E92" t="n">
-        <v>238.6</v>
+        <v>236.7</v>
       </c>
       <c r="F92" t="n">
-        <v>3</v>
+        <v>49.2245</v>
       </c>
       <c r="G92" t="n">
-        <v>-87462.01558719014</v>
+        <v>-107325.9157871901</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4187,7 +3885,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4204,22 +3902,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>238.7</v>
+        <v>236.7</v>
       </c>
       <c r="C93" t="n">
-        <v>238.7</v>
+        <v>236.7</v>
       </c>
       <c r="D93" t="n">
-        <v>238.7</v>
+        <v>236.7</v>
       </c>
       <c r="E93" t="n">
-        <v>238.7</v>
+        <v>236.7</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>-87459.01558719014</v>
+        <v>-107325.9157871901</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4229,7 +3927,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4246,22 +3944,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>239</v>
+        <v>236.8</v>
       </c>
       <c r="C94" t="n">
-        <v>250</v>
+        <v>236.8</v>
       </c>
       <c r="D94" t="n">
-        <v>250</v>
+        <v>236.8</v>
       </c>
       <c r="E94" t="n">
-        <v>239</v>
+        <v>236.8</v>
       </c>
       <c r="F94" t="n">
-        <v>10371.63608719008</v>
+        <v>0.7755</v>
       </c>
       <c r="G94" t="n">
-        <v>-77087.37950000005</v>
+        <v>-107325.1402871901</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4271,7 +3969,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4288,22 +3986,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>250.9</v>
+        <v>236.8</v>
       </c>
       <c r="C95" t="n">
-        <v>254</v>
+        <v>236.8</v>
       </c>
       <c r="D95" t="n">
-        <v>254</v>
+        <v>236.8</v>
       </c>
       <c r="E95" t="n">
-        <v>250.9</v>
+        <v>236.8</v>
       </c>
       <c r="F95" t="n">
-        <v>10942.0079</v>
+        <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>-66145.37160000006</v>
+        <v>-107325.1402871901</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4313,7 +4011,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4330,76 +4028,80 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C96" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D96" t="n">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="E96" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F96" t="n">
-        <v>4204.7481</v>
+        <v>2.2</v>
       </c>
       <c r="G96" t="n">
-        <v>-70350.11970000005</v>
+        <v>-107322.9402871901</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>235.9</v>
+        <v>230</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1.067488342518016</v>
-      </c>
-      <c r="N96" t="n">
-        <v>1.014957264957265</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C97" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D97" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E97" t="n">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F97" t="n">
-        <v>1311.1267</v>
+        <v>17.8</v>
       </c>
       <c r="G97" t="n">
-        <v>-70350.11970000005</v>
+        <v>-107322.9402871901</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>230</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4410,32 +4112,38 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>250</v>
+        <v>236.8</v>
       </c>
       <c r="C98" t="n">
-        <v>245</v>
+        <v>236.1</v>
       </c>
       <c r="D98" t="n">
-        <v>250</v>
+        <v>236.8</v>
       </c>
       <c r="E98" t="n">
-        <v>245</v>
+        <v>236.1</v>
       </c>
       <c r="F98" t="n">
-        <v>1138.7139</v>
+        <v>310</v>
       </c>
       <c r="G98" t="n">
-        <v>-71488.83360000006</v>
+        <v>-107632.9402871901</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>230</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4446,32 +4154,38 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C99" t="n">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D99" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E99" t="n">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="F99" t="n">
-        <v>12</v>
+        <v>2.2</v>
       </c>
       <c r="G99" t="n">
-        <v>-71476.83360000006</v>
+        <v>-107630.7402871901</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>230</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4482,22 +4196,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>250</v>
+        <v>235.2</v>
       </c>
       <c r="C100" t="n">
-        <v>250</v>
+        <v>235.2</v>
       </c>
       <c r="D100" t="n">
-        <v>250</v>
+        <v>235.2</v>
       </c>
       <c r="E100" t="n">
-        <v>249</v>
+        <v>235.2</v>
       </c>
       <c r="F100" t="n">
-        <v>2053.1142</v>
+        <v>63.7755</v>
       </c>
       <c r="G100" t="n">
-        <v>-71476.83360000006</v>
+        <v>-107694.5157871901</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4506,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>230</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4518,32 +4238,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C101" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D101" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E101" t="n">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F101" t="n">
-        <v>73.57810000000001</v>
+        <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>-71476.83360000006</v>
+        <v>-107664.5157871901</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>230</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4554,32 +4280,38 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>251</v>
+        <v>236.7</v>
       </c>
       <c r="C102" t="n">
-        <v>251</v>
+        <v>237.9</v>
       </c>
       <c r="D102" t="n">
-        <v>251</v>
+        <v>237.9</v>
       </c>
       <c r="E102" t="n">
-        <v>250</v>
+        <v>236.7</v>
       </c>
       <c r="F102" t="n">
-        <v>9229.8696</v>
+        <v>18236.8508</v>
       </c>
       <c r="G102" t="n">
-        <v>-62246.96400000006</v>
+        <v>-89427.66498719015</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>230</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4590,32 +4322,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>252</v>
+        <v>237.9</v>
       </c>
       <c r="C103" t="n">
-        <v>249</v>
+        <v>237.9</v>
       </c>
       <c r="D103" t="n">
-        <v>252</v>
+        <v>237.9</v>
       </c>
       <c r="E103" t="n">
-        <v>249</v>
+        <v>237.9</v>
       </c>
       <c r="F103" t="n">
-        <v>5124.6715</v>
+        <v>633.3961</v>
       </c>
       <c r="G103" t="n">
-        <v>-67371.63550000006</v>
+        <v>-89427.66498719015</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>230</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4626,32 +4364,38 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C104" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D104" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E104" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F104" t="n">
-        <v>54.6071</v>
+        <v>15.6</v>
       </c>
       <c r="G104" t="n">
-        <v>-67426.24260000006</v>
+        <v>-89412.06498719014</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>230</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4662,32 +4406,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C105" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D105" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E105" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G105" t="n">
-        <v>-67426.24260000006</v>
+        <v>-89412.06498719014</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>230</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4448,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>249</v>
+        <v>238.1</v>
       </c>
       <c r="C106" t="n">
-        <v>249</v>
+        <v>238.1</v>
       </c>
       <c r="D106" t="n">
-        <v>249</v>
+        <v>238.1</v>
       </c>
       <c r="E106" t="n">
-        <v>249</v>
+        <v>238.1</v>
       </c>
       <c r="F106" t="n">
-        <v>1838.8676</v>
+        <v>2196.8902</v>
       </c>
       <c r="G106" t="n">
-        <v>-65587.37500000006</v>
+        <v>-87215.17478719015</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4722,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>230</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4734,32 +4490,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C107" t="n">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D107" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E107" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F107" t="n">
-        <v>1436.3047</v>
+        <v>1387.1437</v>
       </c>
       <c r="G107" t="n">
-        <v>-67023.67970000005</v>
+        <v>-88602.31848719015</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>230</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4770,32 +4532,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>245</v>
+        <v>237.3</v>
       </c>
       <c r="C108" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D108" t="n">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E108" t="n">
-        <v>245</v>
+        <v>237.3</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>638.3920000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-67043.67970000005</v>
+        <v>-88602.31848719015</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>230</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4806,32 +4574,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>245</v>
+        <v>238.2</v>
       </c>
       <c r="C109" t="n">
-        <v>245</v>
+        <v>238.2</v>
       </c>
       <c r="D109" t="n">
-        <v>245</v>
+        <v>238.2</v>
       </c>
       <c r="E109" t="n">
-        <v>245</v>
+        <v>238.2</v>
       </c>
       <c r="F109" t="n">
-        <v>1661.4</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>-67043.67970000005</v>
+        <v>-88599.31848719015</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>230</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4842,32 +4616,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>245</v>
+        <v>238.1</v>
       </c>
       <c r="C110" t="n">
-        <v>245</v>
+        <v>238.1</v>
       </c>
       <c r="D110" t="n">
-        <v>245</v>
+        <v>238.1</v>
       </c>
       <c r="E110" t="n">
-        <v>245</v>
+        <v>238.1</v>
       </c>
       <c r="F110" t="n">
-        <v>3193.5619</v>
+        <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>-67043.67970000005</v>
+        <v>-88629.31848719015</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>230</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4878,36 +4658,1188 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>238.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>238.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>238.1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>238.1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>50</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-88629.31848719015</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>230</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>50</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-88679.31848719015</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>230</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-88629.31848719015</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>230</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="C114" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="F114" t="n">
+        <v>641.3920000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-87987.92648719014</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>230</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="C115" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>50</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-87987.92648719014</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>230</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>238</v>
+      </c>
+      <c r="C116" t="n">
+        <v>238</v>
+      </c>
+      <c r="D116" t="n">
+        <v>238</v>
+      </c>
+      <c r="E116" t="n">
+        <v>238</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-87937.92648719014</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>230</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>469.9109</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-87468.01558719014</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>238</v>
+      </c>
+      <c r="K117" t="n">
+        <v>230</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="C118" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="E118" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-87465.01558719014</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>230</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2557.329</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-84907.68658719014</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>230</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="C120" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2557.329</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-87465.01558719014</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>230</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-87462.01558719014</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>230</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>238.7</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-87459.01558719014</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>230</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>239</v>
+      </c>
+      <c r="C123" t="n">
+        <v>250</v>
+      </c>
+      <c r="D123" t="n">
+        <v>250</v>
+      </c>
+      <c r="E123" t="n">
+        <v>239</v>
+      </c>
+      <c r="F123" t="n">
+        <v>10371.63608719008</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-77087.37950000005</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>230</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="C124" t="n">
+        <v>254</v>
+      </c>
+      <c r="D124" t="n">
+        <v>254</v>
+      </c>
+      <c r="E124" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10942.0079</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-66145.37160000006</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>230</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>254</v>
+      </c>
+      <c r="C125" t="n">
+        <v>253</v>
+      </c>
+      <c r="D125" t="n">
+        <v>254</v>
+      </c>
+      <c r="E125" t="n">
+        <v>253</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4204.7481</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-70350.11970000005</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>230</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>253</v>
+      </c>
+      <c r="D126" t="n">
+        <v>253</v>
+      </c>
+      <c r="E126" t="n">
+        <v>253</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1311.1267</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-70350.11970000005</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>230</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>250</v>
+      </c>
+      <c r="C127" t="n">
         <v>245</v>
       </c>
-      <c r="C111" t="n">
+      <c r="D127" t="n">
+        <v>250</v>
+      </c>
+      <c r="E127" t="n">
         <v>245</v>
       </c>
-      <c r="D111" t="n">
+      <c r="F127" t="n">
+        <v>1138.7139</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-71488.83360000006</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>230</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1.060217391304348</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.074235807860262</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>252</v>
+      </c>
+      <c r="C128" t="n">
+        <v>250</v>
+      </c>
+      <c r="D128" t="n">
+        <v>252</v>
+      </c>
+      <c r="E128" t="n">
+        <v>249</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-71476.83360000006</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>250</v>
+      </c>
+      <c r="C129" t="n">
+        <v>250</v>
+      </c>
+      <c r="D129" t="n">
+        <v>250</v>
+      </c>
+      <c r="E129" t="n">
+        <v>249</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2053.1142</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-71476.83360000006</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>250</v>
+      </c>
+      <c r="C130" t="n">
+        <v>250</v>
+      </c>
+      <c r="D130" t="n">
+        <v>250</v>
+      </c>
+      <c r="E130" t="n">
+        <v>250</v>
+      </c>
+      <c r="F130" t="n">
+        <v>73.57810000000001</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-71476.83360000006</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>251</v>
+      </c>
+      <c r="C131" t="n">
+        <v>251</v>
+      </c>
+      <c r="D131" t="n">
+        <v>251</v>
+      </c>
+      <c r="E131" t="n">
+        <v>250</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9229.8696</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-62246.96400000006</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>252</v>
+      </c>
+      <c r="C132" t="n">
+        <v>249</v>
+      </c>
+      <c r="D132" t="n">
+        <v>252</v>
+      </c>
+      <c r="E132" t="n">
+        <v>249</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5124.6715</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-67371.63550000006</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>248</v>
+      </c>
+      <c r="C133" t="n">
+        <v>248</v>
+      </c>
+      <c r="D133" t="n">
+        <v>248</v>
+      </c>
+      <c r="E133" t="n">
+        <v>248</v>
+      </c>
+      <c r="F133" t="n">
+        <v>54.6071</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-67426.24260000006</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>248</v>
+      </c>
+      <c r="C134" t="n">
+        <v>248</v>
+      </c>
+      <c r="D134" t="n">
+        <v>248</v>
+      </c>
+      <c r="E134" t="n">
+        <v>248</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-67426.24260000006</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>249</v>
+      </c>
+      <c r="C135" t="n">
+        <v>249</v>
+      </c>
+      <c r="D135" t="n">
+        <v>249</v>
+      </c>
+      <c r="E135" t="n">
+        <v>249</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1838.8676</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-65587.37500000006</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>248</v>
+      </c>
+      <c r="C136" t="n">
+        <v>247</v>
+      </c>
+      <c r="D136" t="n">
+        <v>248</v>
+      </c>
+      <c r="E136" t="n">
+        <v>244</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1436.3047</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-67023.67970000005</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>245</v>
       </c>
-      <c r="E111" t="n">
+      <c r="C137" t="n">
         <v>245</v>
       </c>
-      <c r="F111" t="n">
+      <c r="D137" t="n">
+        <v>245</v>
+      </c>
+      <c r="E137" t="n">
+        <v>245</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-67043.67970000005</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>245</v>
+      </c>
+      <c r="C138" t="n">
+        <v>245</v>
+      </c>
+      <c r="D138" t="n">
+        <v>245</v>
+      </c>
+      <c r="E138" t="n">
+        <v>245</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1661.4</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-67043.67970000005</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>245</v>
+      </c>
+      <c r="C139" t="n">
+        <v>245</v>
+      </c>
+      <c r="D139" t="n">
+        <v>245</v>
+      </c>
+      <c r="E139" t="n">
+        <v>245</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3193.5619</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-67043.67970000005</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>245</v>
+      </c>
+      <c r="C140" t="n">
+        <v>245</v>
+      </c>
+      <c r="D140" t="n">
+        <v>245</v>
+      </c>
+      <c r="E140" t="n">
+        <v>245</v>
+      </c>
+      <c r="F140" t="n">
         <v>786.5381</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G140" t="n">
         <v>-67043.67970000005</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,22 +2563,15 @@
         <v>-120937.0524</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>230</v>
-      </c>
-      <c r="K66" t="n">
-        <v>230</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2800,26 +2596,15 @@
         <v>-120937.0524</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>230</v>
-      </c>
-      <c r="K67" t="n">
-        <v>230</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2844,26 +2629,21 @@
         <v>-120444.402</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>230</v>
       </c>
-      <c r="K68" t="n">
-        <v>230</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,26 +2668,21 @@
         <v>-120444.402</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
         <v>231</v>
       </c>
-      <c r="K69" t="n">
-        <v>230</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2932,26 +2707,21 @@
         <v>-120444.402</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>231</v>
       </c>
-      <c r="K70" t="n">
-        <v>230</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2976,26 +2746,21 @@
         <v>-113824.402</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>231</v>
       </c>
-      <c r="K71" t="n">
-        <v>230</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3020,26 +2785,21 @@
         <v>-115591.5417</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
         <v>231.8</v>
       </c>
-      <c r="K72" t="n">
-        <v>230</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3064,26 +2824,21 @@
         <v>-106015.6980871901</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
         <v>231.2</v>
       </c>
-      <c r="K73" t="n">
-        <v>230</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3108,24 +2863,21 @@
         <v>-106247.8735871901</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>230</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3152,22 +2904,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>230</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3194,22 +2941,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>230</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3236,22 +2978,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>230</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3278,22 +3015,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>230</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3320,22 +3052,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>230</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3360,26 +3087,19 @@
         <v>-106805.1735871901</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="K80" t="n">
-        <v>230</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3404,26 +3124,19 @@
         <v>-106802.1735871901</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>230</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3448,26 +3161,21 @@
         <v>-106702.1735871901</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>232.8</v>
       </c>
-      <c r="K82" t="n">
-        <v>230</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3492,26 +3200,19 @@
         <v>-106857.7735871901</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>230</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3536,26 +3237,21 @@
         <v>-106855.5735871901</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>233.6</v>
       </c>
-      <c r="K84" t="n">
-        <v>230</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3580,26 +3276,19 @@
         <v>-107255.9157871901</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>235</v>
-      </c>
-      <c r="K85" t="n">
-        <v>230</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3624,26 +3313,19 @@
         <v>-107204.1157871901</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="K86" t="n">
-        <v>230</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3670,22 +3352,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>230</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3712,22 +3389,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>230</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3754,22 +3426,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>230</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3796,22 +3463,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>230</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3838,22 +3500,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>230</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3880,22 +3537,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>230</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3922,22 +3574,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>230</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3964,22 +3611,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>230</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4006,22 +3648,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>230</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4048,22 +3685,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>230</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4090,22 +3722,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>230</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4132,22 +3759,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>230</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4174,22 +3796,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>230</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,22 +3833,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>230</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4258,22 +3870,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>230</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4300,22 +3907,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>230</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4342,22 +3944,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>230</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4384,22 +3981,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>230</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4426,22 +4018,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>230</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4468,22 +4055,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>230</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4510,22 +4092,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>230</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4552,22 +4129,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>230</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4594,22 +4166,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>230</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4636,22 +4203,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>230</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4678,22 +4240,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>230</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4720,22 +4277,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>230</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4762,22 +4314,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>230</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4804,22 +4351,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>230</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4846,22 +4388,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>230</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4888,22 +4425,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>230</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4928,26 +4460,19 @@
         <v>-87468.01558719014</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>238</v>
-      </c>
-      <c r="K117" t="n">
-        <v>230</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4974,22 +4499,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>230</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5014,26 +4534,19 @@
         <v>-84907.68658719014</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>238.4</v>
-      </c>
-      <c r="K119" t="n">
-        <v>230</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5060,22 +4573,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>230</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5102,22 +4610,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>230</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5144,22 +4647,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>230</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5186,22 +4684,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>230</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5228,22 +4721,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>230</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5270,22 +4758,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>230</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5312,22 +4795,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>230</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5352,26 +4830,17 @@
         <v>-71488.83360000006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>230</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1.060217391304348</v>
-      </c>
-      <c r="N127" t="n">
-        <v>1.074235807860262</v>
-      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5398,16 +4867,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5432,18 +4898,15 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5470,16 +4933,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5506,16 +4966,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5540,18 +4997,15 @@
         <v>-67371.63550000006</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5576,18 +5030,15 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5612,18 +5063,15 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5648,18 +5096,15 @@
         <v>-65587.37500000006</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5684,18 +5129,15 @@
         <v>-67023.67970000005</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5720,18 +5162,15 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5758,16 +5197,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5794,16 +5230,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5830,18 +5263,15 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-111232.1725</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-110761.5074</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -2365,11 +2365,17 @@
         <v>-112695.9071</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>232</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2404,17 @@
         <v>-112695.9071</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>232</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2447,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2484,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2521,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2558,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2591,17 @@
         <v>-120937.0524</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>230</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2630,17 @@
         <v>-120937.0524</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>230</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,7 +2669,7 @@
         <v>-120444.402</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>230</v>
@@ -2637,7 +2677,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2668,7 +2708,7 @@
         <v>-120444.402</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>231</v>
@@ -2707,7 +2747,7 @@
         <v>-120444.402</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>231</v>
@@ -2746,7 +2786,7 @@
         <v>-113824.402</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>231</v>
@@ -2785,7 +2825,7 @@
         <v>-115591.5417</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>231.8</v>
@@ -2824,7 +2864,7 @@
         <v>-106015.6980871901</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>231.2</v>
@@ -2863,7 +2903,7 @@
         <v>-106247.8735871901</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>242</v>
@@ -3050,9 +3090,11 @@
         <v>-106808.1735871901</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>232.3</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3087,9 +3129,11 @@
         <v>-106805.1735871901</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>232.3</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3124,9 +3168,11 @@
         <v>-106802.1735871901</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>232.6</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3161,7 +3207,7 @@
         <v>-106702.1735871901</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>232.8</v>
@@ -3200,9 +3246,11 @@
         <v>-106857.7735871901</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>234.9</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3237,7 +3285,7 @@
         <v>-106855.5735871901</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>233.6</v>
@@ -3276,9 +3324,11 @@
         <v>-107255.9157871901</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>235</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3313,9 +3363,11 @@
         <v>-107204.1157871901</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>231.3</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3350,9 +3402,11 @@
         <v>-107201.1157871901</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -4830,16 +4884,18 @@
         <v>-71488.83360000006</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4869,7 +4925,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +4958,15 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4935,7 +4999,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4968,7 +5036,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +5069,15 @@
         <v>-67371.63550000006</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +5106,15 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5143,15 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5096,11 +5180,15 @@
         <v>-65587.37500000006</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +5217,16 @@
         <v>-67023.67970000005</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5162,7 +5252,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5195,7 +5285,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5228,7 +5318,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5261,7 +5351,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5272,6 +5362,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-111232.1725</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-110761.5074</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -2365,17 +2365,11 @@
         <v>-112695.9071</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2409,12 +2403,10 @@
       <c r="I61" t="n">
         <v>232</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="n">
+        <v>232</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2443,13 +2435,17 @@
         <v>-120937.0524</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>232</v>
+      </c>
+      <c r="J62" t="n">
+        <v>232</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2483,7 +2479,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>232</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2520,7 +2518,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>232</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2554,10 +2554,14 @@
         <v>-120937.0524</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>230</v>
+      </c>
+      <c r="J65" t="n">
+        <v>232</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2596,7 +2600,9 @@
       <c r="I66" t="n">
         <v>230</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>232</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2635,7 +2641,9 @@
       <c r="I67" t="n">
         <v>230</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>232</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2674,7 +2682,9 @@
       <c r="I68" t="n">
         <v>230</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>232</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2713,7 +2723,9 @@
       <c r="I69" t="n">
         <v>231</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>232</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,7 +2764,9 @@
       <c r="I70" t="n">
         <v>231</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>232</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,7 +2805,9 @@
       <c r="I71" t="n">
         <v>231</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>232</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2825,12 +2841,12 @@
         <v>-115591.5417</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>232</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,12 +2880,12 @@
         <v>-106015.6980871901</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>232</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2903,12 +2919,12 @@
         <v>-106247.8735871901</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>242</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>232</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2945,7 +2961,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>232</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,7 +3000,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>232</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3019,7 +3039,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>232</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,7 +3078,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>232</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,12 +3114,12 @@
         <v>-106808.1735871901</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>232</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,12 +3153,12 @@
         <v>-106805.1735871901</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>232.3</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>232</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3168,12 +3192,12 @@
         <v>-106802.1735871901</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>232</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3207,12 +3231,12 @@
         <v>-106702.1735871901</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>232.8</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>232</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3246,12 +3270,12 @@
         <v>-106857.7735871901</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>234.9</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>232</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,12 +3309,12 @@
         <v>-106855.5735871901</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>233.6</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>232</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,12 +3348,12 @@
         <v>-107255.9157871901</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>235</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>232</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3363,12 +3387,12 @@
         <v>-107204.1157871901</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>231.3</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>232</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3402,12 +3426,12 @@
         <v>-107201.1157871901</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>232</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3444,7 +3468,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3481,7 +3507,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>232</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,7 +3546,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>232</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,7 +3585,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>232</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,7 +3624,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>232</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3629,7 +3663,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>232</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,7 +3702,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>232</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3703,7 +3741,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>232</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,7 +3780,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>232</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,7 +3819,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>232</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3814,7 +3858,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>232</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,7 +3897,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>232</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3888,7 +3936,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>232</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3925,7 +3975,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>232</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3962,7 +4014,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>232</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,7 +4053,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>232</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,7 +4092,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>232</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4073,7 +4131,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>232</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,7 +4170,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>232</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,7 +4209,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>232</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,7 +4248,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>232</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4221,7 +4287,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>232</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4255,17 +4323,19 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>232</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>1.021293103448276</v>
       </c>
       <c r="M110" t="inlineStr"/>
     </row>
@@ -4292,15 +4362,11 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4329,15 +4395,11 @@
         <v>-88679.31848719015</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4366,15 +4428,11 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4403,15 +4461,11 @@
         <v>-87987.92648719014</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4498,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4531,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4514,15 +4560,11 @@
         <v>-87468.01558719014</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4597,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4630,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4663,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4666,11 +4696,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +4729,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4762,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4773,15 +4791,11 @@
         <v>-66145.37160000006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4810,15 +4824,11 @@
         <v>-70350.11970000005</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4851,11 +4861,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +4894,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4925,11 +4927,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4960,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4999,11 +4993,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5036,11 +5026,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5073,11 +5059,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5110,11 +5092,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +5125,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +5158,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5217,16 +5187,14 @@
         <v>-67023.67970000005</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5252,7 +5220,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5285,7 +5253,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5318,7 +5286,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5351,7 +5319,7 @@
         <v>-67043.67970000005</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5362,6 +5330,6 @@
       <c r="M140" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -2398,14 +2398,10 @@
         <v>-112695.9071</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>232</v>
-      </c>
-      <c r="J61" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2435,19 +2431,11 @@
         <v>-120937.0524</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>232</v>
-      </c>
-      <c r="J62" t="n">
-        <v>232</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2479,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>232</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>232</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2554,19 +2530,11 @@
         <v>-120937.0524</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>230</v>
-      </c>
-      <c r="J65" t="n">
-        <v>232</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2601,13 +2569,9 @@
         <v>230</v>
       </c>
       <c r="J66" t="n">
-        <v>232</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2642,11 +2606,11 @@
         <v>230</v>
       </c>
       <c r="J67" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -2683,11 +2647,11 @@
         <v>230</v>
       </c>
       <c r="J68" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -2724,7 +2688,7 @@
         <v>231</v>
       </c>
       <c r="J69" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2765,7 +2729,7 @@
         <v>231</v>
       </c>
       <c r="J70" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2806,7 +2770,7 @@
         <v>231</v>
       </c>
       <c r="J71" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2841,11 +2805,13 @@
         <v>-115591.5417</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>231.8</v>
+      </c>
       <c r="J72" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2880,11 +2846,13 @@
         <v>-106015.6980871901</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>231.2</v>
+      </c>
       <c r="J73" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2923,7 +2891,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2962,7 +2930,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3001,7 +2969,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3040,7 +3008,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3079,7 +3047,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3118,7 +3086,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3157,7 +3125,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3196,7 +3164,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3235,7 +3203,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3274,7 +3242,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3313,7 +3281,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3352,7 +3320,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3391,7 +3359,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3430,7 +3398,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3469,7 +3437,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3508,7 +3476,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3547,7 +3515,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3586,7 +3554,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3625,7 +3593,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3664,7 +3632,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3703,7 +3671,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3742,7 +3710,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3781,7 +3749,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3820,7 +3788,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3859,7 +3827,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3898,7 +3866,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3937,7 +3905,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3976,7 +3944,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4015,7 +3983,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4054,7 +4022,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4093,7 +4061,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4132,7 +4100,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4171,7 +4139,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4210,7 +4178,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4249,7 +4217,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4288,7 +4256,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4323,19 +4291,19 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.021293103448276</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
     </row>
@@ -4362,11 +4330,17 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>230</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4395,11 +4369,17 @@
         <v>-88679.31848719015</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>230</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4428,11 +4408,17 @@
         <v>-88629.31848719015</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>230</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4461,11 +4447,17 @@
         <v>-87987.92648719014</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>230</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4497,8 +4489,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>230</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4530,8 +4528,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>230</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4560,11 +4564,17 @@
         <v>-87468.01558719014</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>230</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4596,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>230</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4629,8 +4645,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>230</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4662,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>230</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4695,8 +4723,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>230</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4728,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>230</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4761,8 +4801,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>230</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4791,11 +4837,17 @@
         <v>-66145.37160000006</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>230</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4827,12 +4879,20 @@
         <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>230</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>1.095</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.074235807860262</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4857,7 +4917,7 @@
         <v>-70350.11970000005</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4890,7 +4950,7 @@
         <v>-71488.83360000006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4923,7 +4983,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4956,7 +5016,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4989,7 +5049,7 @@
         <v>-71476.83360000006</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5055,7 +5115,7 @@
         <v>-67371.63550000006</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5088,7 +5148,7 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5121,7 +5181,7 @@
         <v>-67426.24260000006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5187,7 +5247,7 @@
         <v>-67023.67970000005</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>

--- a/BackTest/2020-01-25 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-25 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>73.00149999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-111232.1725</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>470.6651</v>
       </c>
       <c r="G3" t="n">
-        <v>-110761.5074</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1296</v>
       </c>
       <c r="G4" t="n">
-        <v>-109465.5074</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>13525.1089</v>
       </c>
       <c r="G5" t="n">
-        <v>-95940.39850000004</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>395.1349</v>
       </c>
       <c r="G6" t="n">
-        <v>-96335.53340000004</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1429.7314</v>
       </c>
       <c r="G7" t="n">
-        <v>-97765.26480000005</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>81.4422</v>
       </c>
       <c r="G8" t="n">
-        <v>-97683.82260000004</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>8371.0542</v>
       </c>
       <c r="G9" t="n">
-        <v>-89312.76840000004</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2091.3536</v>
       </c>
       <c r="G10" t="n">
-        <v>-87221.41480000004</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1398.8</v>
       </c>
       <c r="G11" t="n">
-        <v>-88620.21480000005</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2543.357</v>
       </c>
       <c r="G12" t="n">
-        <v>-91163.57180000005</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>3124.4314</v>
       </c>
       <c r="G13" t="n">
-        <v>-94288.00320000005</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>-94283.00320000005</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>37.7177</v>
       </c>
       <c r="G15" t="n">
-        <v>-94245.28550000006</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1038.4016</v>
       </c>
       <c r="G16" t="n">
-        <v>-95283.68710000005</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>243.6</v>
       </c>
       <c r="G17" t="n">
-        <v>-95283.68710000005</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7816.2975</v>
       </c>
       <c r="G18" t="n">
-        <v>-95283.68710000005</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>-95233.68710000005</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7816.2976</v>
       </c>
       <c r="G20" t="n">
-        <v>-103049.9847000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>-103052.9847000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>-103061.9847000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1976.957</v>
       </c>
       <c r="G23" t="n">
-        <v>-101085.0277000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4918.118</v>
       </c>
       <c r="G24" t="n">
-        <v>-101085.0277000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>6275.7837</v>
       </c>
       <c r="G25" t="n">
-        <v>-107360.8114000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>68.20999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>-107292.6014000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>-107286.6014000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>145.19</v>
       </c>
       <c r="G28" t="n">
-        <v>-107431.7914000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>561.216</v>
       </c>
       <c r="G29" t="n">
-        <v>-107431.7914000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>241.4493</v>
       </c>
       <c r="G30" t="n">
-        <v>-107673.2407000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2789.9177</v>
       </c>
       <c r="G31" t="n">
-        <v>-110463.1584000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1210.0823</v>
       </c>
       <c r="G32" t="n">
-        <v>-110463.1584000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>210.15</v>
       </c>
       <c r="G33" t="n">
-        <v>-110253.0084000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>32.3184</v>
       </c>
       <c r="G34" t="n">
-        <v>-110220.6900000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>5901.5733</v>
       </c>
       <c r="G35" t="n">
-        <v>-104319.1167000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>960</v>
       </c>
       <c r="G36" t="n">
-        <v>-105279.1167000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>27.9267</v>
       </c>
       <c r="G37" t="n">
-        <v>-105279.1167000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>7221.978</v>
       </c>
       <c r="G38" t="n">
-        <v>-112501.0947000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>9</v>
       </c>
       <c r="G39" t="n">
-        <v>-112510.0947000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3186.3704</v>
       </c>
       <c r="G40" t="n">
-        <v>-109323.7243000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>6</v>
       </c>
       <c r="G41" t="n">
-        <v>-109317.7243000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1596.689</v>
       </c>
       <c r="G42" t="n">
-        <v>-107721.0353000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>539.4109999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-107721.0353000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>633.3961</v>
       </c>
       <c r="G44" t="n">
-        <v>-107087.6392000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>175.3422</v>
       </c>
       <c r="G45" t="n">
-        <v>-106912.2970000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>175.3</v>
       </c>
       <c r="G46" t="n">
-        <v>-106912.2970000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>710</v>
       </c>
       <c r="G47" t="n">
-        <v>-107622.2970000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>220</v>
       </c>
       <c r="G48" t="n">
-        <v>-107842.2970000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1372.4106</v>
       </c>
       <c r="G49" t="n">
-        <v>-106469.8864000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>5391.4205</v>
       </c>
       <c r="G50" t="n">
-        <v>-111861.3069000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>48.2115</v>
       </c>
       <c r="G51" t="n">
-        <v>-111813.0954</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>60.3698</v>
       </c>
       <c r="G52" t="n">
-        <v>-111873.4652</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>350.9058</v>
       </c>
       <c r="G53" t="n">
-        <v>-112224.371</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>234.2913</v>
       </c>
       <c r="G54" t="n">
-        <v>-112224.371</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>15</v>
       </c>
       <c r="G55" t="n">
-        <v>-112239.371</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>181.5361</v>
       </c>
       <c r="G56" t="n">
-        <v>-112420.9071</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>577.0571</v>
       </c>
       <c r="G57" t="n">
-        <v>-112420.9071</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>8599.797</v>
       </c>
       <c r="G58" t="n">
-        <v>-112420.9071</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>275</v>
       </c>
       <c r="G59" t="n">
-        <v>-112695.9071</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2825.8748</v>
       </c>
       <c r="G60" t="n">
-        <v>-112695.9071</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3500.0615</v>
       </c>
       <c r="G61" t="n">
-        <v>-112695.9071</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>8241.1453</v>
       </c>
       <c r="G62" t="n">
-        <v>-120937.0524</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2336.0933</v>
       </c>
       <c r="G63" t="n">
-        <v>-120937.0524</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>3277.8422</v>
       </c>
       <c r="G64" t="n">
-        <v>-120937.0524</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>-120937.0524</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,22 +2363,15 @@
         <v>154.4701</v>
       </c>
       <c r="G66" t="n">
-        <v>-120937.0524</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>230</v>
-      </c>
-      <c r="J66" t="n">
-        <v>230</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2597,231 +2393,177 @@
         <v>2044.2432</v>
       </c>
       <c r="G67" t="n">
-        <v>-120937.0524</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>230</v>
       </c>
-      <c r="J67" t="n">
+      <c r="C68" t="n">
+        <v>231</v>
+      </c>
+      <c r="D68" t="n">
+        <v>231</v>
+      </c>
+      <c r="E68" t="n">
         <v>230</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="F68" t="n">
+        <v>492.6504</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>231</v>
+      </c>
+      <c r="C69" t="n">
+        <v>231</v>
+      </c>
+      <c r="D69" t="n">
+        <v>231</v>
+      </c>
+      <c r="E69" t="n">
+        <v>231</v>
+      </c>
+      <c r="F69" t="n">
+        <v>56.7263</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>231</v>
+      </c>
+      <c r="C70" t="n">
+        <v>231</v>
+      </c>
+      <c r="D70" t="n">
+        <v>231</v>
+      </c>
+      <c r="E70" t="n">
+        <v>231</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1861.9402</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6620</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>231</v>
+      </c>
+      <c r="I71" t="n">
+        <v>231</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1767.1397</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>231</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>230</v>
-      </c>
-      <c r="C68" t="n">
-        <v>231</v>
-      </c>
-      <c r="D68" t="n">
-        <v>231</v>
-      </c>
-      <c r="E68" t="n">
-        <v>230</v>
-      </c>
-      <c r="F68" t="n">
-        <v>492.6504</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-120444.402</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>230</v>
-      </c>
-      <c r="J68" t="n">
-        <v>230</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>231</v>
-      </c>
-      <c r="C69" t="n">
-        <v>231</v>
-      </c>
-      <c r="D69" t="n">
-        <v>231</v>
-      </c>
-      <c r="E69" t="n">
-        <v>231</v>
-      </c>
-      <c r="F69" t="n">
-        <v>56.7263</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-120444.402</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>231</v>
-      </c>
-      <c r="J69" t="n">
-        <v>230</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>231</v>
-      </c>
-      <c r="C70" t="n">
-        <v>231</v>
-      </c>
-      <c r="D70" t="n">
-        <v>231</v>
-      </c>
-      <c r="E70" t="n">
-        <v>231</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1861.9402</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-120444.402</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>231</v>
-      </c>
-      <c r="J70" t="n">
-        <v>230</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D71" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E71" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>6620</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-113824.402</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>231</v>
-      </c>
-      <c r="J71" t="n">
-        <v>230</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>1767.1397</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-115591.5417</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>230</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2843,26 +2585,23 @@
         <v>9575.843612809917</v>
       </c>
       <c r="G73" t="n">
-        <v>-106015.6980871901</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>231.2</v>
       </c>
       <c r="I73" t="n">
-        <v>231.2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>230</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>231</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2884,24 +2623,15 @@
         <v>232.1755</v>
       </c>
       <c r="G74" t="n">
-        <v>-106247.8735871901</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>230</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2923,24 +2653,15 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>-106247.8735871901</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>230</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2962,24 +2683,15 @@
         <v>235.5</v>
       </c>
       <c r="G76" t="n">
-        <v>-106483.3735871901</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>230</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3001,24 +2713,15 @@
         <v>2.2</v>
       </c>
       <c r="G77" t="n">
-        <v>-106481.1735871901</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>230</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3040,24 +2743,15 @@
         <v>327</v>
       </c>
       <c r="G78" t="n">
-        <v>-106808.1735871901</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>230</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3079,24 +2773,15 @@
         <v>253.684</v>
       </c>
       <c r="G79" t="n">
-        <v>-106808.1735871901</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>230</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3118,24 +2803,15 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>-106805.1735871901</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>230</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3157,24 +2833,15 @@
         <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>-106802.1735871901</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>230</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3196,24 +2863,15 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-106702.1735871901</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>230</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3235,24 +2893,15 @@
         <v>155.6</v>
       </c>
       <c r="G83" t="n">
-        <v>-106857.7735871901</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>230</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3274,24 +2923,15 @@
         <v>2.2</v>
       </c>
       <c r="G84" t="n">
-        <v>-106855.5735871901</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>230</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3313,24 +2953,15 @@
         <v>400.3422</v>
       </c>
       <c r="G85" t="n">
-        <v>-107255.9157871901</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>230</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3352,24 +2983,15 @@
         <v>51.8</v>
       </c>
       <c r="G86" t="n">
-        <v>-107204.1157871901</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>230</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3391,24 +3013,15 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>-107201.1157871901</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>230</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3430,24 +3043,15 @@
         <v>60.7755</v>
       </c>
       <c r="G88" t="n">
-        <v>-107261.8912871901</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>230</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3469,24 +3073,15 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>-107258.8912871901</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>230</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3508,24 +3103,15 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>-107278.8912871901</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>230</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3547,24 +3133,15 @@
         <v>2.2</v>
       </c>
       <c r="G91" t="n">
-        <v>-107276.6912871901</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>230</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3586,24 +3163,15 @@
         <v>49.2245</v>
       </c>
       <c r="G92" t="n">
-        <v>-107325.9157871901</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>230</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3625,24 +3193,15 @@
         <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>-107325.9157871901</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>230</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3664,24 +3223,15 @@
         <v>0.7755</v>
       </c>
       <c r="G94" t="n">
-        <v>-107325.1402871901</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>230</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3703,24 +3253,15 @@
         <v>5</v>
       </c>
       <c r="G95" t="n">
-        <v>-107325.1402871901</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>230</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3742,24 +3283,15 @@
         <v>2.2</v>
       </c>
       <c r="G96" t="n">
-        <v>-107322.9402871901</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>230</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3781,24 +3313,15 @@
         <v>17.8</v>
       </c>
       <c r="G97" t="n">
-        <v>-107322.9402871901</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>230</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3820,24 +3343,15 @@
         <v>310</v>
       </c>
       <c r="G98" t="n">
-        <v>-107632.9402871901</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>230</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3859,24 +3373,15 @@
         <v>2.2</v>
       </c>
       <c r="G99" t="n">
-        <v>-107630.7402871901</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>230</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3898,24 +3403,15 @@
         <v>63.7755</v>
       </c>
       <c r="G100" t="n">
-        <v>-107694.5157871901</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>230</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3937,24 +3433,15 @@
         <v>30</v>
       </c>
       <c r="G101" t="n">
-        <v>-107664.5157871901</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>230</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3976,24 +3463,15 @@
         <v>18236.8508</v>
       </c>
       <c r="G102" t="n">
-        <v>-89427.66498719015</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>230</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,24 +3493,15 @@
         <v>633.3961</v>
       </c>
       <c r="G103" t="n">
-        <v>-89427.66498719015</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>230</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4054,24 +3523,15 @@
         <v>15.6</v>
       </c>
       <c r="G104" t="n">
-        <v>-89412.06498719014</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>230</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4093,24 +3553,15 @@
         <v>300</v>
       </c>
       <c r="G105" t="n">
-        <v>-89412.06498719014</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>230</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4132,24 +3583,15 @@
         <v>2196.8902</v>
       </c>
       <c r="G106" t="n">
-        <v>-87215.17478719015</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>230</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4171,24 +3613,15 @@
         <v>1387.1437</v>
       </c>
       <c r="G107" t="n">
-        <v>-88602.31848719015</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>230</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4210,24 +3643,15 @@
         <v>638.3920000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>-88602.31848719015</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>230</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4249,24 +3673,15 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>-88599.31848719015</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>230</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4288,24 +3703,15 @@
         <v>30</v>
       </c>
       <c r="G110" t="n">
-        <v>-88629.31848719015</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>230</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4327,24 +3733,15 @@
         <v>50</v>
       </c>
       <c r="G111" t="n">
-        <v>-88629.31848719015</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>230</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4366,24 +3763,15 @@
         <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>-88679.31848719015</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>230</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4405,24 +3793,15 @@
         <v>50</v>
       </c>
       <c r="G113" t="n">
-        <v>-88629.31848719015</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>230</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4444,24 +3823,15 @@
         <v>641.3920000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-87987.92648719014</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>230</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4483,24 +3853,15 @@
         <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>-87987.92648719014</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>230</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4522,24 +3883,15 @@
         <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>-87937.92648719014</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>230</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4561,24 +3913,15 @@
         <v>469.9109</v>
       </c>
       <c r="G117" t="n">
-        <v>-87468.01558719014</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>230</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4600,24 +3943,15 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>-87465.01558719014</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>230</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4639,24 +3973,15 @@
         <v>2557.329</v>
       </c>
       <c r="G119" t="n">
-        <v>-84907.68658719014</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>230</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4678,24 +4003,15 @@
         <v>2557.329</v>
       </c>
       <c r="G120" t="n">
-        <v>-87465.01558719014</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>230</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4717,24 +4033,15 @@
         <v>3</v>
       </c>
       <c r="G121" t="n">
-        <v>-87462.01558719014</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>230</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4756,24 +4063,15 @@
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>-87459.01558719014</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>230</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4795,24 +4093,15 @@
         <v>10371.63608719008</v>
       </c>
       <c r="G123" t="n">
-        <v>-77087.37950000005</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>230</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4834,24 +4123,15 @@
         <v>10942.0079</v>
       </c>
       <c r="G124" t="n">
-        <v>-66145.37160000006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>230</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4873,26 +4153,15 @@
         <v>4204.7481</v>
       </c>
       <c r="G125" t="n">
-        <v>-70350.11970000005</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>230</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1.095</v>
-      </c>
-      <c r="M125" t="n">
-        <v>1.074235807860262</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4914,18 +4183,15 @@
         <v>1311.1267</v>
       </c>
       <c r="G126" t="n">
-        <v>-70350.11970000005</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4947,18 +4213,15 @@
         <v>1138.7139</v>
       </c>
       <c r="G127" t="n">
-        <v>-71488.83360000006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4980,18 +4243,15 @@
         <v>12</v>
       </c>
       <c r="G128" t="n">
-        <v>-71476.83360000006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5013,18 +4273,15 @@
         <v>2053.1142</v>
       </c>
       <c r="G129" t="n">
-        <v>-71476.83360000006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5046,18 +4303,15 @@
         <v>73.57810000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>-71476.83360000006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5079,18 +4333,15 @@
         <v>9229.8696</v>
       </c>
       <c r="G131" t="n">
-        <v>-62246.96400000006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5112,18 +4363,15 @@
         <v>5124.6715</v>
       </c>
       <c r="G132" t="n">
-        <v>-67371.63550000006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5145,18 +4393,15 @@
         <v>54.6071</v>
       </c>
       <c r="G133" t="n">
-        <v>-67426.24260000006</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5178,18 +4423,15 @@
         <v>20</v>
       </c>
       <c r="G134" t="n">
-        <v>-67426.24260000006</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5211,18 +4453,15 @@
         <v>1838.8676</v>
       </c>
       <c r="G135" t="n">
-        <v>-65587.37500000006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5244,18 +4483,15 @@
         <v>1436.3047</v>
       </c>
       <c r="G136" t="n">
-        <v>-67023.67970000005</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5277,18 +4513,15 @@
         <v>20</v>
       </c>
       <c r="G137" t="n">
-        <v>-67043.67970000005</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5310,18 +4543,15 @@
         <v>1661.4</v>
       </c>
       <c r="G138" t="n">
-        <v>-67043.67970000005</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5343,18 +4573,15 @@
         <v>3193.5619</v>
       </c>
       <c r="G139" t="n">
-        <v>-67043.67970000005</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5376,18 +4603,15 @@
         <v>786.5381</v>
       </c>
       <c r="G140" t="n">
-        <v>-67043.67970000005</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
